--- a/doc/标定工具_版本变更说明.xlsx
+++ b/doc/标定工具_版本变更说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能说明" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
-  <si>
-    <t>标定工具 - V2.7.0.0（当前提测版本）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>标定工具 - V2.7.0.1（当前提测版本）</t>
   </si>
   <si>
     <t>序号</t>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>提测第一版</t>
+  </si>
+  <si>
+    <t>v 2.7.0.1</t>
+  </si>
+  <si>
+    <t>修复bug #623 #625</t>
   </si>
 </sst>
 </file>
@@ -94,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -139,8 +145,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,44 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -230,6 +236,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,35 +290,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,6 +323,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,24 +365,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,6 +395,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,72 +474,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,26 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -725,153 +711,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1439,13 +1445,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="102.5" style="2" customWidth="1"/>
@@ -1467,6 +1473,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
